--- a/ExcelExport/Reports/query_2.xlsx
+++ b/ExcelExport/Reports/query_2.xlsx
@@ -53,13 +53,13 @@
     <t xml:space="preserve">2231</t>
   </si>
   <si>
-    <t xml:space="preserve">3048</t>
+    <t xml:space="preserve">3049</t>
   </si>
   <si>
     <t xml:space="preserve">715</t>
   </si>
   <si>
-    <t xml:space="preserve">6022</t>
+    <t xml:space="preserve">6023</t>
   </si>
   <si>
     <t xml:space="preserve">COM</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">95</t>
   </si>
   <si>
-    <t xml:space="preserve">7523</t>
+    <t xml:space="preserve">7524</t>
   </si>
   <si>
     <t xml:space="preserve">623</t>
   </si>
   <si>
-    <t xml:space="preserve">8244</t>
+    <t xml:space="preserve">8245</t>
   </si>
   <si>
     <t xml:space="preserve">CON</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">345</t>
+    <t xml:space="preserve">346</t>
   </si>
   <si>
     <t xml:space="preserve">121</t>
   </si>
   <si>
-    <t xml:space="preserve">473</t>
+    <t xml:space="preserve">474</t>
   </si>
   <si>
     <t xml:space="preserve">FIN</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">351</t>
   </si>
   <si>
-    <t xml:space="preserve">5196</t>
+    <t xml:space="preserve">5200</t>
   </si>
   <si>
     <t xml:space="preserve">1185</t>
   </si>
   <si>
-    <t xml:space="preserve">6733</t>
+    <t xml:space="preserve">6737</t>
   </si>
   <si>
     <t xml:space="preserve">INS</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">152</t>
   </si>
   <si>
-    <t xml:space="preserve">597</t>
+    <t xml:space="preserve">598</t>
   </si>
   <si>
     <t xml:space="preserve">75</t>
   </si>
   <si>
-    <t xml:space="preserve">824</t>
+    <t xml:space="preserve">825</t>
   </si>
   <si>
     <t xml:space="preserve">MAN</t>
@@ -200,16 +200,16 @@
     <t xml:space="preserve">MIN</t>
   </si>
   <si>
-    <t xml:space="preserve">969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">718</t>
+    <t xml:space="preserve">970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">719</t>
   </si>
   <si>
     <t xml:space="preserve">67</t>
   </si>
   <si>
-    <t xml:space="preserve">1761</t>
+    <t xml:space="preserve">1763</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">1565</t>
   </si>
   <si>
-    <t xml:space="preserve">20002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105292</t>
+    <t xml:space="preserve">20003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105322</t>
   </si>
   <si>
     <t xml:space="preserve">496</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">28464</t>
   </si>
   <si>
-    <t xml:space="preserve">155819</t>
+    <t xml:space="preserve">155850</t>
   </si>
   <si>
     <t xml:space="preserve">PROP</t>
@@ -266,10 +266,10 @@
     <t xml:space="preserve">771</t>
   </si>
   <si>
-    <t xml:space="preserve">1824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30001</t>
+    <t xml:space="preserve">1825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30003</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">11224</t>
   </si>
   <si>
-    <t xml:space="preserve">43835</t>
+    <t xml:space="preserve">43838</t>
   </si>
   <si>
     <t xml:space="preserve">SERVICES</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">96</t>
   </si>
   <si>
-    <t xml:space="preserve">1598</t>
+    <t xml:space="preserve">1599</t>
   </si>
   <si>
     <t xml:space="preserve">1172</t>
   </si>
   <si>
-    <t xml:space="preserve">2871</t>
+    <t xml:space="preserve">2872</t>
   </si>
   <si>
     <t xml:space="preserve">TRAN</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">209</t>
   </si>
   <si>
-    <t xml:space="preserve">1580</t>
+    <t xml:space="preserve">1581</t>
   </si>
   <si>
     <t xml:space="preserve">672</t>
   </si>
   <si>
-    <t xml:space="preserve">2466</t>
+    <t xml:space="preserve">2467</t>
   </si>
   <si>
     <t xml:space="preserve">WRTCAS</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">48</t>
   </si>
   <si>
-    <t xml:space="preserve">1932</t>
+    <t xml:space="preserve">1934</t>
   </si>
   <si>
     <t xml:space="preserve">16878</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">3455</t>
   </si>
   <si>
-    <t xml:space="preserve">22317</t>
+    <t xml:space="preserve">22319</t>
   </si>
   <si>
     <t xml:space="preserve">financial services</t>
@@ -368,10 +368,10 @@
     <t xml:space="preserve">3089</t>
   </si>
   <si>
-    <t xml:space="preserve">31196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196213</t>
+    <t xml:space="preserve">31201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196256</t>
   </si>
   <si>
     <t xml:space="preserve">572</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">71238</t>
   </si>
   <si>
-    <t xml:space="preserve">302367</t>
+    <t xml:space="preserve">302415</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
     <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="6.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.34765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="4.34765625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="6.296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1" collapsed="1"/>
